--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.169425</v>
+        <v>1.14906</v>
       </c>
       <c r="N2">
-        <v>0.508275</v>
+        <v>3.44718</v>
       </c>
       <c r="O2">
-        <v>0.0005062042177611658</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P2">
-        <v>0.0005062042177611658</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q2">
-        <v>18.107905054275</v>
+        <v>242.981912888</v>
       </c>
       <c r="R2">
-        <v>162.971145488475</v>
+        <v>2186.837215992</v>
       </c>
       <c r="S2">
-        <v>7.637347544682064E-05</v>
+        <v>0.000503439886327704</v>
       </c>
       <c r="T2">
-        <v>7.637347544682066E-05</v>
+        <v>0.0005034398863277041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>69.07203766666666</v>
+        <v>0.169425</v>
       </c>
       <c r="N3">
-        <v>207.216113</v>
+        <v>0.508275</v>
       </c>
       <c r="O3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q3">
-        <v>7382.321971216209</v>
+        <v>35.82685899000001</v>
       </c>
       <c r="R3">
-        <v>66440.89774094589</v>
+        <v>322.44173091</v>
       </c>
       <c r="S3">
-        <v>0.03113632328639242</v>
+        <v>7.423050383885199E-05</v>
       </c>
       <c r="T3">
-        <v>0.03113632328639243</v>
+        <v>7.423050383885199E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>234.189438</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N4">
-        <v>702.5683140000001</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q4">
-        <v>25029.83684826927</v>
+        <v>32836.93228810684</v>
       </c>
       <c r="R4">
-        <v>225268.5316344235</v>
+        <v>295532.3905929616</v>
       </c>
       <c r="S4">
-        <v>0.1055680170753887</v>
+        <v>0.06803560504561099</v>
       </c>
       <c r="T4">
-        <v>0.1055680170753887</v>
+        <v>0.06803560504561099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>31.266034</v>
+        <v>0.160095</v>
       </c>
       <c r="N5">
-        <v>93.798102</v>
+        <v>0.480285</v>
       </c>
       <c r="O5">
-        <v>0.09341595563502443</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P5">
-        <v>0.09341595563502442</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q5">
-        <v>3341.669618390049</v>
+        <v>33.853923506</v>
       </c>
       <c r="R5">
-        <v>30075.02656551044</v>
+        <v>304.685311554</v>
       </c>
       <c r="S5">
-        <v>0.01409411645281664</v>
+        <v>7.014273284391918E-05</v>
       </c>
       <c r="T5">
-        <v>0.01409411645281664</v>
+        <v>7.014273284391918E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.169425</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N6">
-        <v>0.508275</v>
+        <v>825.129487</v>
       </c>
       <c r="O6">
-        <v>0.0005062042177611658</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P6">
-        <v>0.0005062042177611658</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q6">
-        <v>13.085187979275</v>
+        <v>58161.03050364475</v>
       </c>
       <c r="R6">
-        <v>117.766691813475</v>
+        <v>523449.2745328029</v>
       </c>
       <c r="S6">
-        <v>5.518922701752613E-05</v>
+        <v>0.120505194141564</v>
       </c>
       <c r="T6">
-        <v>5.518922701752614E-05</v>
+        <v>0.120505194141564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.232923</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>231.698769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.07203766666666</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N7">
-        <v>207.216113</v>
+        <v>362.340271</v>
       </c>
       <c r="O7">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P7">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q7">
-        <v>5334.635366562766</v>
+        <v>25540.33504601916</v>
       </c>
       <c r="R7">
-        <v>48011.71829906489</v>
+        <v>229863.0154141724</v>
       </c>
       <c r="S7">
-        <v>0.02249982214755072</v>
+        <v>0.0529176152229328</v>
       </c>
       <c r="T7">
-        <v>0.02249982214755073</v>
+        <v>0.0529176152229328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>234.189438</v>
+        <v>1.14906</v>
       </c>
       <c r="N8">
-        <v>702.5683140000001</v>
+        <v>3.44718</v>
       </c>
       <c r="O8">
-        <v>0.6997059540842085</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P8">
-        <v>0.6997059540842085</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q8">
-        <v>18087.13483246728</v>
+        <v>88.74526250238</v>
       </c>
       <c r="R8">
-        <v>162784.2134922055</v>
+        <v>798.70736252142</v>
       </c>
       <c r="S8">
-        <v>0.0762858731526567</v>
+        <v>0.0001838733769740065</v>
       </c>
       <c r="T8">
-        <v>0.07628587315265671</v>
+        <v>0.0001838733769740065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,55 +983,55 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>31.266034</v>
+        <v>0.169425</v>
       </c>
       <c r="N9">
-        <v>93.798102</v>
+        <v>0.508275</v>
       </c>
       <c r="O9">
-        <v>0.09341595563502443</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P9">
-        <v>0.09341595563502442</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q9">
-        <v>2414.767196437382</v>
+        <v>13.085187979275</v>
       </c>
       <c r="R9">
-        <v>21732.90476793644</v>
+        <v>117.766691813475</v>
       </c>
       <c r="S9">
-        <v>0.01018473217272357</v>
+        <v>2.711150583417842E-05</v>
       </c>
       <c r="T9">
-        <v>0.01018473217272357</v>
+        <v>2.711150583417842E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.169425</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N10">
-        <v>0.508275</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O10">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P10">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q10">
-        <v>23.156388396225</v>
+        <v>11993.16500987526</v>
       </c>
       <c r="R10">
-        <v>208.407495566025</v>
+        <v>107938.4850888773</v>
       </c>
       <c r="S10">
-        <v>9.766639792484491E-05</v>
+        <v>0.02484891800182705</v>
       </c>
       <c r="T10">
-        <v>9.766639792484494E-05</v>
+        <v>0.02484891800182705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>69.07203766666666</v>
+        <v>0.160095</v>
       </c>
       <c r="N11">
-        <v>207.216113</v>
+        <v>0.480285</v>
       </c>
       <c r="O11">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P11">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q11">
-        <v>9440.513097406027</v>
+        <v>12.364604807685</v>
       </c>
       <c r="R11">
-        <v>84964.61787665424</v>
+        <v>111.281443269165</v>
       </c>
       <c r="S11">
-        <v>0.03981712920898652</v>
+        <v>2.561851277274779E-05</v>
       </c>
       <c r="T11">
-        <v>0.03981712920898654</v>
+        <v>2.561851277274779E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.189438</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N12">
-        <v>702.5683140000001</v>
+        <v>825.129487</v>
       </c>
       <c r="O12">
-        <v>0.6997059540842085</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P12">
-        <v>0.6997059540842085</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q12">
-        <v>32008.15454992861</v>
+        <v>21242.38737816683</v>
       </c>
       <c r="R12">
-        <v>288073.3909493575</v>
+        <v>191181.4864035015</v>
       </c>
       <c r="S12">
-        <v>0.1350003768127714</v>
+        <v>0.04401259731592769</v>
       </c>
       <c r="T12">
-        <v>0.1350003768127714</v>
+        <v>0.04401259731592769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.266034</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N13">
-        <v>93.798102</v>
+        <v>362.340271</v>
       </c>
       <c r="O13">
-        <v>0.09341595563502443</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P13">
-        <v>0.09341595563502442</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q13">
-        <v>4273.326999637458</v>
+        <v>9328.19941664738</v>
       </c>
       <c r="R13">
-        <v>38459.94299673713</v>
+        <v>83953.79474982641</v>
       </c>
       <c r="S13">
-        <v>0.01802355566283447</v>
+        <v>0.01932731370060359</v>
       </c>
       <c r="T13">
-        <v>0.01802355566283447</v>
+        <v>0.01932731370060359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.169425</v>
+        <v>1.14906</v>
       </c>
       <c r="N14">
-        <v>0.508275</v>
+        <v>3.44718</v>
       </c>
       <c r="O14">
-        <v>0.0005062042177611658</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P14">
-        <v>0.0005062042177611658</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q14">
-        <v>7.717421304675002</v>
+        <v>200.29345792126</v>
       </c>
       <c r="R14">
-        <v>69.45679174207501</v>
+        <v>1802.64112129134</v>
       </c>
       <c r="S14">
-        <v>3.254966738331869E-05</v>
+        <v>0.0004149926819225473</v>
       </c>
       <c r="T14">
-        <v>3.25496673833187E-05</v>
+        <v>0.0004149926819225473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>69.07203766666666</v>
+        <v>0.169425</v>
       </c>
       <c r="N15">
-        <v>207.216113</v>
+        <v>0.508275</v>
       </c>
       <c r="O15">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P15">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q15">
-        <v>3146.27720257369</v>
+        <v>29.532591081675</v>
       </c>
       <c r="R15">
-        <v>28316.49482316321</v>
+        <v>265.793319735075</v>
       </c>
       <c r="S15">
-        <v>0.0132700124039431</v>
+        <v>6.118926351515813E-05</v>
       </c>
       <c r="T15">
-        <v>0.0132700124039431</v>
+        <v>6.118926351515811E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>234.189438</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N16">
-        <v>702.5683140000001</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O16">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P16">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q16">
-        <v>10667.48448074998</v>
+        <v>27067.95183780943</v>
       </c>
       <c r="R16">
-        <v>96007.36032674983</v>
+        <v>243611.5665402849</v>
       </c>
       <c r="S16">
-        <v>0.04499211044170775</v>
+        <v>0.05608272004440024</v>
       </c>
       <c r="T16">
-        <v>0.04499211044170776</v>
+        <v>0.05608272004440022</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>31.266034</v>
+        <v>0.160095</v>
       </c>
       <c r="N17">
-        <v>93.798102</v>
+        <v>0.480285</v>
       </c>
       <c r="O17">
-        <v>0.09341595563502443</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P17">
-        <v>0.09341595563502442</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q17">
-        <v>1424.188619768588</v>
+        <v>27.906272210245</v>
       </c>
       <c r="R17">
-        <v>12817.69757791729</v>
+        <v>251.156449892205</v>
       </c>
       <c r="S17">
-        <v>0.006006781803721607</v>
+        <v>5.781965555531497E-05</v>
       </c>
       <c r="T17">
-        <v>0.006006781803721608</v>
+        <v>5.781965555531496E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.169425</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N18">
-        <v>0.508275</v>
+        <v>825.129487</v>
       </c>
       <c r="O18">
-        <v>0.0005062042177611658</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P18">
-        <v>0.0005062042177611658</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q18">
-        <v>33.6475018422</v>
+        <v>47942.96734839067</v>
       </c>
       <c r="R18">
-        <v>302.8275165798</v>
+        <v>431486.706135516</v>
       </c>
       <c r="S18">
-        <v>0.0001419146305489065</v>
+        <v>0.0993341510288136</v>
       </c>
       <c r="T18">
-        <v>0.0001419146305489066</v>
+        <v>0.0993341510288136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.07203766666666</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N19">
-        <v>207.216113</v>
+        <v>362.340271</v>
       </c>
       <c r="O19">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P19">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q19">
-        <v>13717.5830877006</v>
+        <v>21053.26261544696</v>
       </c>
       <c r="R19">
-        <v>123458.2477893054</v>
+        <v>189479.3635390226</v>
       </c>
       <c r="S19">
-        <v>0.05785647163479506</v>
+        <v>0.04362074531380219</v>
       </c>
       <c r="T19">
-        <v>0.05785647163479508</v>
+        <v>0.04362074531380218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>234.189438</v>
+        <v>1.14906</v>
       </c>
       <c r="N20">
-        <v>702.5683140000001</v>
+        <v>3.44718</v>
       </c>
       <c r="O20">
-        <v>0.6997059540842085</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P20">
-        <v>0.6997059540842085</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q20">
-        <v>46509.60334383228</v>
+        <v>32.7881379199</v>
       </c>
       <c r="R20">
-        <v>418586.4300944905</v>
+        <v>295.0932412791</v>
       </c>
       <c r="S20">
-        <v>0.1961629486334723</v>
+        <v>6.793450685730751E-05</v>
       </c>
       <c r="T20">
-        <v>0.1961629486334724</v>
+        <v>6.793450685730753E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>198.5982106666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>595.794632</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.2803505493821544</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>31.266034</v>
+        <v>0.169425</v>
       </c>
       <c r="N21">
-        <v>93.798102</v>
+        <v>0.508275</v>
       </c>
       <c r="O21">
-        <v>0.09341595563502443</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P21">
-        <v>0.09341595563502442</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q21">
-        <v>6209.378407043163</v>
+        <v>4.834499736375</v>
       </c>
       <c r="R21">
-        <v>55884.40566338846</v>
+        <v>43.510497627375</v>
       </c>
       <c r="S21">
-        <v>0.02618921448333806</v>
+        <v>1.00167126384169E-05</v>
       </c>
       <c r="T21">
-        <v>0.02618921448333806</v>
+        <v>1.00167126384169E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.169425</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N22">
-        <v>0.508275</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O22">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P22">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q22">
-        <v>24.3049851351</v>
+        <v>4431.037075690241</v>
       </c>
       <c r="R22">
-        <v>218.7448662159</v>
+        <v>39879.33368121217</v>
       </c>
       <c r="S22">
-        <v>0.0001025108194397489</v>
+        <v>0.009180768951833807</v>
       </c>
       <c r="T22">
-        <v>0.0001025108194397489</v>
+        <v>0.009180768951833807</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>69.07203766666666</v>
+        <v>0.160095</v>
       </c>
       <c r="N23">
-        <v>207.216113</v>
+        <v>0.480285</v>
       </c>
       <c r="O23">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P23">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q23">
-        <v>9908.778803242734</v>
+        <v>4.568270534424999</v>
       </c>
       <c r="R23">
-        <v>89179.00922918461</v>
+        <v>41.114434809825</v>
       </c>
       <c r="S23">
-        <v>0.04179212738133804</v>
+        <v>9.465106152264154E-06</v>
       </c>
       <c r="T23">
-        <v>0.04179212738133805</v>
+        <v>9.465106152264154E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>234.189438</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N24">
-        <v>702.5683140000001</v>
+        <v>825.129487</v>
       </c>
       <c r="O24">
-        <v>0.6997059540842085</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P24">
-        <v>0.6997059540842085</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q24">
-        <v>33595.81413243277</v>
+        <v>7848.287417985812</v>
       </c>
       <c r="R24">
-        <v>302362.327191895</v>
+        <v>70634.58676187231</v>
       </c>
       <c r="S24">
-        <v>0.1416966279682117</v>
+        <v>0.01626104955145021</v>
       </c>
       <c r="T24">
-        <v>0.1416966279682117</v>
+        <v>0.01626104955145021</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.4557186666667</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>430.367156</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.2025088212285795</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.2025088212285796</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,772 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.266034</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N25">
-        <v>93.798102</v>
+        <v>362.340271</v>
       </c>
       <c r="O25">
-        <v>0.09341595563502443</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P25">
-        <v>0.09341595563502442</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q25">
-        <v>4485.291377326434</v>
+        <v>3446.429481338933</v>
       </c>
       <c r="R25">
-        <v>40367.62239593791</v>
+        <v>31017.86533205039</v>
       </c>
       <c r="S25">
-        <v>0.01891755505959008</v>
+        <v>0.007140737537618624</v>
       </c>
       <c r="T25">
-        <v>0.01891755505959008</v>
+        <v>0.007140737537618624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>230.32901</v>
+      </c>
+      <c r="H26">
+        <v>690.98703</v>
+      </c>
+      <c r="I26">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J26">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>1.14906</v>
+      </c>
+      <c r="N26">
+        <v>3.44718</v>
+      </c>
+      <c r="O26">
+        <v>0.00207941733452039</v>
+      </c>
+      <c r="P26">
+        <v>0.002079417334520391</v>
+      </c>
+      <c r="Q26">
+        <v>264.6618522306</v>
+      </c>
+      <c r="R26">
+        <v>2381.9566700754</v>
+      </c>
+      <c r="S26">
+        <v>0.0005483590577528668</v>
+      </c>
+      <c r="T26">
+        <v>0.0005483590577528669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>230.32901</v>
+      </c>
+      <c r="H27">
+        <v>690.98703</v>
+      </c>
+      <c r="I27">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J27">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.169425</v>
+      </c>
+      <c r="N27">
+        <v>0.508275</v>
+      </c>
+      <c r="O27">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="P27">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="Q27">
+        <v>39.02349251925001</v>
+      </c>
+      <c r="R27">
+        <v>351.21143267325</v>
+      </c>
+      <c r="S27">
+        <v>8.085368332356838E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.085368332356838E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>230.32901</v>
+      </c>
+      <c r="H28">
+        <v>690.98703</v>
+      </c>
+      <c r="I28">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J28">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>155.2856546666667</v>
+      </c>
+      <c r="N28">
+        <v>465.8569639999999</v>
+      </c>
+      <c r="O28">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="P28">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="Q28">
+        <v>35766.79110657521</v>
+      </c>
+      <c r="R28">
+        <v>321901.1199591769</v>
+      </c>
+      <c r="S28">
+        <v>0.07410604779171706</v>
+      </c>
+      <c r="T28">
+        <v>0.07410604779171706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>230.32901</v>
+      </c>
+      <c r="H29">
+        <v>690.98703</v>
+      </c>
+      <c r="I29">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J29">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.160095</v>
+      </c>
+      <c r="N29">
+        <v>0.480285</v>
+      </c>
+      <c r="O29">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P29">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q29">
+        <v>36.87452285595</v>
+      </c>
+      <c r="R29">
+        <v>331.87070570355</v>
+      </c>
+      <c r="S29">
+        <v>7.640118301128334E-05</v>
+      </c>
+      <c r="T29">
+        <v>7.640118301128334E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>230.32901</v>
+      </c>
+      <c r="H30">
+        <v>690.98703</v>
+      </c>
+      <c r="I30">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J30">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N30">
+        <v>825.129487</v>
+      </c>
+      <c r="O30">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P30">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q30">
+        <v>63350.41928750596</v>
+      </c>
+      <c r="R30">
+        <v>570153.7735875536</v>
+      </c>
+      <c r="S30">
+        <v>0.1312572096657054</v>
+      </c>
+      <c r="T30">
+        <v>0.1312572096657054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>230.32901</v>
+      </c>
+      <c r="H31">
+        <v>690.98703</v>
+      </c>
+      <c r="I31">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="J31">
+        <v>0.263708034289011</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N31">
+        <v>362.340271</v>
+      </c>
+      <c r="O31">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P31">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q31">
+        <v>27819.15863418724</v>
+      </c>
+      <c r="R31">
+        <v>250372.4277076852</v>
+      </c>
+      <c r="S31">
+        <v>0.05763916290750076</v>
+      </c>
+      <c r="T31">
+        <v>0.05763916290750076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H32">
+        <v>454.666397</v>
+      </c>
+      <c r="I32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J32">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>1.14906</v>
+      </c>
+      <c r="N32">
+        <v>3.44718</v>
+      </c>
+      <c r="O32">
+        <v>0.00207941733452039</v>
+      </c>
+      <c r="P32">
+        <v>0.002079417334520391</v>
+      </c>
+      <c r="Q32">
+        <v>174.14632337894</v>
+      </c>
+      <c r="R32">
+        <v>1567.31691041046</v>
+      </c>
+      <c r="S32">
+        <v>0.0003608178246859581</v>
+      </c>
+      <c r="T32">
+        <v>0.0003608178246859581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H33">
+        <v>454.666397</v>
+      </c>
+      <c r="I33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J33">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.169425</v>
+      </c>
+      <c r="N33">
+        <v>0.508275</v>
+      </c>
+      <c r="O33">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="P33">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="Q33">
+        <v>25.677284770575</v>
+      </c>
+      <c r="R33">
+        <v>231.095562935175</v>
+      </c>
+      <c r="S33">
+        <v>5.320136454790738E-05</v>
+      </c>
+      <c r="T33">
+        <v>5.320136454790738E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H34">
+        <v>454.666397</v>
+      </c>
+      <c r="I34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J34">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>155.2856546666667</v>
+      </c>
+      <c r="N34">
+        <v>465.8569639999999</v>
+      </c>
+      <c r="O34">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="P34">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="Q34">
+        <v>23534.38970435986</v>
+      </c>
+      <c r="R34">
+        <v>211809.5073392387</v>
+      </c>
+      <c r="S34">
+        <v>0.04876145033484898</v>
+      </c>
+      <c r="T34">
+        <v>0.04876145033484898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H35">
+        <v>454.666397</v>
+      </c>
+      <c r="I35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J35">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.160095</v>
+      </c>
+      <c r="N35">
+        <v>0.480285</v>
+      </c>
+      <c r="O35">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P35">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q35">
+        <v>24.263272275905</v>
+      </c>
+      <c r="R35">
+        <v>218.369450483145</v>
+      </c>
+      <c r="S35">
+        <v>5.027163911640686E-05</v>
+      </c>
+      <c r="T35">
+        <v>5.027163911640686E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H36">
+        <v>454.666397</v>
+      </c>
+      <c r="I36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J36">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N36">
+        <v>825.129487</v>
+      </c>
+      <c r="O36">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P36">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q36">
+        <v>41684.29454586092</v>
+      </c>
+      <c r="R36">
+        <v>375158.6509127483</v>
+      </c>
+      <c r="S36">
+        <v>0.086366661034115</v>
+      </c>
+      <c r="T36">
+        <v>0.08636666103411501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>151.5554656666667</v>
+      </c>
+      <c r="H37">
+        <v>454.666397</v>
+      </c>
+      <c r="I37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="J37">
+        <v>0.1735187154093718</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N37">
+        <v>362.340271</v>
+      </c>
+      <c r="O37">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P37">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q37">
+        <v>18304.8828337304</v>
+      </c>
+      <c r="R37">
+        <v>164743.9455035736</v>
+      </c>
+      <c r="S37">
+        <v>0.03792631321205756</v>
+      </c>
+      <c r="T37">
+        <v>0.03792631321205756</v>
       </c>
     </row>
   </sheetData>
